--- a/PythonLibraryAnalysis.xlsx
+++ b/PythonLibraryAnalysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zishan.ahmadkhan\Documents\imp_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A96D506A-8C9B-4423-BF4B-B97088934B4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,9 +128,6 @@
 The main feature that makes xltable more useful than just writing the Excel files directly is that it can handle tables with formulas that relate to cells in the workbook without having to know in advance where those tables will be placed on a worksheet.</t>
   </si>
   <si>
-    <t>Not much popular. And doesn't provide much functionalities.</t>
-  </si>
-  <si>
     <t>This library is mainly used for writing/formatting excel 2007 onwards.
 If you only need to write Excel workbooks and not read them then xlsxwriter is an easy to use package to use that works well.
 If you are working with large files or are particularly concerned about speed then you may find xlsxwriter a better choice than openpyxl.
@@ -139,10 +137,6 @@
 It supports Python 2.5, 2.6, 2.7, 3.1, 3.2, 3.3, 3.4, 3.5, 3.6, Jython and PyPy and uses standard libraries only.It's a python standard library.</t>
   </si>
   <si>
-    <t>Templating for PDF
-(we have many templates engine, some engines best on performance, functionalities and popularity are mentioned here)</t>
-  </si>
-  <si>
     <t>cheetah</t>
   </si>
   <si>
@@ -222,13 +216,6 @@
   </si>
   <si>
     <t>Documentation is a little lacking.</t>
-  </si>
-  <si>
-    <t>A good thing about WeasyPrint is that you ca convert a HTML document to a PDF.
-Dataframes have a "to_html" method.To work with dataframe we have preferred way to go along with template engine.</t>
-  </si>
-  <si>
-    <t>A library for converting HTML into PDFs using ReportLab.To work with dataframe we have preferred way to go along with template engine.</t>
   </si>
   <si>
     <t>It povides structure to create pdf report in terms of .tex file.
@@ -253,22 +240,6 @@
     <t>Initially it requires little more effort to code later it worths 
 awesome.ReportLab has only a rudimentary set of rules.
 Reportlab directly don't convert html template to pdf.</t>
-  </si>
-  <si>
-    <t>pdfkit can also convert a HTML document to a PDF.It's a wrapper over whtmltopdf. Easy to use.
-Dataframes have a "to_html" method.To work with dataframe we have preferred way to go along with template engine.</t>
-  </si>
-  <si>
-    <t>Good for simple report.</t>
-  </si>
-  <si>
-    <t>There is free open source Python API version o ReportLab and the commercial Report Markup Language product (RML). It is possible to mix RML with a template engine.
-Awesome and buzz word to create any kind of report. Very rich in case of functionalities. It's a python base library to create report so performance is also good.
-With ReportLab, you place each item yourself, at precisely the location you want it. ReportLab works at a lower level than LaTeX.ReportLab gives you much more control over your output than LaTeX.It
-allows you to place your pieces of text and graphics very precisely, to
-suit your particular needs.If I were creating a registration form or an inventory
-report, I'd use ReportLab. It relies on pillow which is a third party image library.
-To work with the dataframe we have to convert into list.Good for complex report like latex is good.</t>
   </si>
   <si>
     <t>openpyxl.Workbook(), openpyxl.Workbook().
@@ -388,8 +359,135 @@
   </si>
   <si>
     <r>
-      <t>Here there is no straight forward conclusion so I mentioned all possible selections.
-If we want to generate more customised pdf report either on normal data or dataframe dataset,</t>
+      <t xml:space="preserve">As per my observation writing and formatting the excel report is efficient to go with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xlswriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. If we work with pandas dataframe then instead of using xlswriter alone use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with xlswriter engine because alone xlswriter asks developer to inject dataframe records using iteration, although pandas function internally do that iteration with the help of engine used.As pandas alone using any engine internally can not customize reports much so I would reccommend use xlswriter functionalities by importing it explicitly to customize the report.</t>
+    </r>
+  </si>
+  <si>
+    <t>Templating for PDF
+(we have many templates engine, some engines based on performance, functionalities and popularity are mentioned here)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we want to use HTML like template then I would recommend first </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jinja2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mako</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cheetah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.It is advised by folks on stackoverflow that any template doesn't impact performance much, we should select according to application depth and easy to use.</t>
+    </r>
+  </si>
+  <si>
+    <t>There is free open source Python API version o ReportLab and the commercial Report Markup Language product (RML). It is possible to mix RML with an HTML template engine. Reportlab works on RML template.
+Awesome and buzz word to create any kind of report. Very rich in case of functionalities. It's a python base library to create report so performance is also good.
+With ReportLab, you place each item yourself, at precisely the location you want it. ReportLab works at a lower level than LaTeX.ReportLab gives you much more control over your output than LaTeX.It
+allows you to place your pieces of text and graphics very precisely, to
+suit your particular needs.If I were creating a registration form or an inventory
+report, I'd use ReportLab. It relies on pillow which is a third party image library.
+To work with the dataframe we have to convert into list.Good for complex report like latex is good.Reportlab native template string is RML,we can use appropriate template engine to generate rml string. We can convert HTML to RML using preppy supported by reportlab.</t>
+  </si>
+  <si>
+    <r>
+      <t>Here there is no straight forward conclusion so I mentioned all possible selections.If we want to generate more customised pdf report either on normal data or dataframe dataset,</t>
     </r>
     <r>
       <rPr>
@@ -432,7 +530,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> is good option although there is some pros and cons as compare to latex features.Reportlab doesn't work with template engine, so in this case there are so many libraries built on top of reportlab like pisa, xhtm2.pdf but will not reccommend as </t>
+      <t xml:space="preserve"> is good option although there is some pros and cons as compare to latex features.
+Reportlab native template string is </t>
     </r>
     <r>
       <rPr>
@@ -443,6 +542,71 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>RML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,we can use appropriate template engine to generate rml string. We can convert HTML to RML using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preppy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> supported by reportlab. 
+Reportlab doesn't work with HTML template directly, so in this case there are so many libraries built on top of reportlab like pisa, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xhtm2pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .Actually xhtml2pdf is a fork from pisa.
+In reportlab work with dataframe we have to pass list data type by converting each dataframe series unit to reportlab and it doesn't support template engines.So generating report on top of dataframe we can also go with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>pdfkit</t>
     </r>
     <r>
@@ -453,131 +617,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> works better than those.
-In reportlab work with dataframe we have to pass list data type by converting each dataframe series unit to reportlab and it doesn't support template engines.So generating report on top of dataframe we can go with pdfkit as it uses template engine.If in future if we want to make our report complex then again I would say to bear some downside of reportlab and go with it. So finally we have to select anyone from latex,reportlab and pdfkit.
+      <t xml:space="preserve"> as it uses template engine.If in future if we want to make our report complex then again I would say to bear some downside of reportlab and go with it. So finally we have to select anyone from latex,reportlab,xhtml2pdf and pdfkit.
+One important point I want to add here if we use Flask framework then automatically it uses jinja2 templating and if we use Django framework then by default Django templates comes with it. Jinja2 and Django both are HTML based te,plate engine so we can directly use any pdf generation engine over it which support HTML template like pdfkit, xhtml2pdf etc or else if we want to go with reportlab then either we have to proceed without any template or we have to generate RML template.
 </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">As per my observation writing and formatting the excel report is efficient to go with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xlswriter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. If we work with pandas dataframe then instead of using xlswriter alone use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pandas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with xlswriter engine because alone xlswriter asks developer to inject dataframe records using iteration, although pandas function internally do that iteration with the help of engine used.As pandas alone using any engine internally can not customize reports much so I would reccommend use xlswriter functionalities by importing it explicitly to customize the report.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If we want to use template then I would recommend first </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jinja2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mako</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cheetah</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>A library for converting HTML into PDFs using ReportLab.To work with dataframe we have preferred way to go along with template engine.
+Actually xhtml2pdf is a fork from pisa.
+xhtml2pdf also works with a separate CSS file.</t>
+  </si>
+  <si>
+    <t>Good for simple report. It also works with a separate CSS file.</t>
+  </si>
+  <si>
+    <t>pdfkit can also convert a HTML document to a PDF.It's a wrapper over whtmltopdf. Easy to use.
+Dataframes have a "to_html" method.To work with dataframe we have preferred way to go along with template engine.
+It also works with a separate CSS file.</t>
+  </si>
+  <si>
+    <t>A good thing about WeasyPrint is that you ca convert a HTML document to a PDF.
+Dataframes have a "to_html" method.To work with dataframe we have preferred way to go along with template engine.It also works with a separate CSS file.</t>
+  </si>
+  <si>
+    <t>Not much popular. And doesn't provide much 
+functionalities.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -610,7 +680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,17 +717,144 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -666,61 +863,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,497 +1269,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
     <col min="4" max="4" width="68" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="255">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="105">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="180">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="120">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="100.9" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="409.5">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="270">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="75">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="75">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="60">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="E15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="120">
+      <c r="A16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" ht="43.2">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="100.8" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" ht="86.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" ht="172.8">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" ht="100.8">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="100.8">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="259.2" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="120">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="15"/>
+      <c r="E17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="105">
+      <c r="A18" s="23"/>
+      <c r="B18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="259.14999999999998" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="326.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="201.6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="16"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" ht="57.6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="21"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="57.6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="15"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.8">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="15"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" ht="86.4">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" ht="100.8">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" ht="100.8">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" ht="295.8">
-      <c r="C41" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="43"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="43"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="43"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="43"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="43"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F9:F17"/>
-    <mergeCell ref="F19:F30"/>
-    <mergeCell ref="F32:F39"/>
-    <mergeCell ref="F2:F7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
